--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7F60E-36B3-463D-B935-DA6FC9658013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354C37DA-2FAB-4EBC-8513-9324C644AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354C37DA-2FAB-4EBC-8513-9324C644AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A9A8A-89FE-49EE-B7C4-409CAE94FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,10 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
-  <si>
-    <t>munitions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>9mm</t>
   </si>
@@ -381,9 +378,6 @@
     <t>rn vrai c'est pour les chat mais ça fait mal aux yeux quand meme</t>
   </si>
   <si>
-    <t>pistolet 9mm</t>
-  </si>
-  <si>
     <t>sturblaser mk1</t>
   </si>
   <si>
@@ -487,6 +481,15 @@
   </si>
   <si>
     <t>armes de mélée</t>
+  </si>
+  <si>
+    <t>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>munition</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -726,6 +736,21 @@
   <rel r:id="rId24"/>
   <rel r:id="rId25"/>
 </richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D5E200E-8304-4C12-BD27-CD5C07C7B491}" name="Tableau3" displayName="Tableau3" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{6D5E200E-8304-4C12-BD27-CD5C07C7B491}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E86BC455-A92C-43CE-B8B6-9CF9E8D13C39}" name="Type d'objet"/>
+    <tableColumn id="2" xr3:uid="{742D6A08-052C-4A25-A8F1-317F816D77CE}" name="Colonne1"/>
+    <tableColumn id="3" xr3:uid="{C9272115-71EB-46EB-8A05-0EE7E185355E}" name="prix unitaire (crédit)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F5C97EF6-8FFB-4BED-8A6B-F0ECD91CA1BE}" name="description" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1C106866-6082-4B09-9D48-7BFF987DE5BC}" name="poid unitaire(kg)"/>
+    <tableColumn id="6" xr3:uid="{CFBB8012-47A1-4722-80AE-FF7E47AEBEF3}" name="image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,212 +1028,242 @@
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-      <c r="F3" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F5" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0.9</v>
-      </c>
-      <c r="F6" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0.9</v>
-      </c>
-      <c r="F7" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="E8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F8" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F8" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F9" t="e" vm="6">
+      <c r="F9" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" t="e" vm="8">
+      <c r="F11" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1218,14 +1273,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1235,14 +1293,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -1252,14 +1313,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -1269,14 +1333,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1287,16 +1354,16 @@
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1306,14 +1373,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>2.2999999999999998</v>
@@ -1323,14 +1393,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>1.5</v>
@@ -1340,14 +1413,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1358,16 +1434,16 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -1377,14 +1453,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1394,14 +1473,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1412,16 +1494,16 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" t="e" vm="21">
         <v>#VALUE!</v>
@@ -1429,16 +1511,16 @@
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1448,14 +1530,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1465,14 +1550,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0.2</v>
@@ -1482,14 +1570,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -1511,5 +1602,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A9A8A-89FE-49EE-B7C4-409CAE94FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8198A1-AEDE-4C8D-BAF5-DA821B3A267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Armes" sheetId="10" r:id="rId1"/>
+    <sheet name="Armes au cac" sheetId="11" r:id="rId2"/>
+    <sheet name="Munitions" sheetId="6" r:id="rId3"/>
+    <sheet name="equipement" sheetId="13" r:id="rId4"/>
+    <sheet name="consomables" sheetId="12" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -298,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>9mm</t>
   </si>
@@ -351,15 +358,6 @@
     <t>poid unitaire(kg)</t>
   </si>
   <si>
-    <t>Type d'objet</t>
-  </si>
-  <si>
-    <t>Armes</t>
-  </si>
-  <si>
-    <t>un fusil d'assault tout ce qu'il y a de plus normal, comprend des zones de customisation ainsi que un porte clef. Attention au recul héhé</t>
-  </si>
-  <si>
     <t>roquette</t>
   </si>
   <si>
@@ -372,12 +370,6 @@
     <t>dissipe la chaleur dans votre lasser personnel en cas de surchauffe lors d'une échauffouré ou si ça chauffe un peu trop enfin bon vous savez à quoi ça sert ça sert à rien que je parle plus mais bon mon ex me l'a dit c'est pas parceque je parle trop qu'elle m'a quitté mais parce que je couchais avec sa soeur après bon c'est fini avec elle, elle s'est pris une pluie d'acide droit sur le visage. bon après maintenant c'est avec la fille unique du patron je sais pas si ça va durer mais si je me présente pas vite avec elle je pense que ça va mal finir et je vais me retrouver à faire l'engrais ou bien le patron va faire une crise cardiaque on sait jamais je deviendrais peut etre vice président,</t>
   </si>
   <si>
-    <t>un laser sur épaule qui vous permet de bruler en surface ou faire prendre feu. Attention c'est lourds et chiant à transporter attention à pas le toucher après la chauffe</t>
-  </si>
-  <si>
-    <t>rn vrai c'est pour les chat mais ça fait mal aux yeux quand meme</t>
-  </si>
-  <si>
     <t>sturblaser mk1</t>
   </si>
   <si>
@@ -393,12 +385,6 @@
     <t>MMORPG-7</t>
   </si>
   <si>
-    <t>un lance roquette très performant avec un viseur laser (pas de guidage)</t>
-  </si>
-  <si>
-    <t>soins</t>
-  </si>
-  <si>
     <t>kit de soin</t>
   </si>
   <si>
@@ -420,18 +406,12 @@
     <t>vous donne l'impression d'etre guerir</t>
   </si>
   <si>
-    <t xml:space="preserve">additionel </t>
-  </si>
-  <si>
     <t>victoria</t>
   </si>
   <si>
     <t>des tourelles intéligentes (peut etre un peut trop (on aurrait pas due leur donner une conscience)) son nom est victoria. Attention elle a les yeux révolver.</t>
   </si>
   <si>
-    <t>equipement</t>
-  </si>
-  <si>
     <t>gillet par balles</t>
   </si>
   <si>
@@ -480,23 +460,47 @@
     <t>voila là tu est un vrai chevalier manque plus que le haume</t>
   </si>
   <si>
-    <t>armes de mélée</t>
-  </si>
-  <si>
     <t>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
-    <t>munition</t>
+    <t>nom de l'objet</t>
+  </si>
+  <si>
+    <t>Range (ft)</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>6d10</t>
+  </si>
+  <si>
+    <t>un fusil d'assault tout ce qu'il y a de plus normal, comprend des zones de customisation ainsi que un porte clef. Attention au recul héhé. Si critique rajoute 1d6</t>
+  </si>
+  <si>
+    <t>2d6</t>
+  </si>
+  <si>
+    <t>1d20</t>
+  </si>
+  <si>
+    <t>un laser sur épaule qui vous permet de bruler en surface ou faire prendre feu. Attention c'est lourds et chiant à transporter attention à pas le toucher après la chauffe, si critique met en feu la cible et fait 1d6 de dégats paar tour tant que le jet de constitution n'est pas réussis.</t>
+  </si>
+  <si>
+    <t>en vrai c'est pour les chat mais ça fait mal aux yeux quand meme unless</t>
+  </si>
+  <si>
+    <t>un lance roquette très performant avec un viseur laser (pas de guidage)en cas de critique rajoute 3d10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,16 +508,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -521,25 +545,796 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,6 +1347,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,15 +1556,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D5E200E-8304-4C12-BD27-CD5C07C7B491}" name="Tableau3" displayName="Tableau3" ref="A1:F28" totalsRowShown="0">
-  <autoFilter ref="A1:F28" xr:uid="{6D5E200E-8304-4C12-BD27-CD5C07C7B491}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E86BC455-A92C-43CE-B8B6-9CF9E8D13C39}" name="Type d'objet"/>
-    <tableColumn id="2" xr3:uid="{742D6A08-052C-4A25-A8F1-317F816D77CE}" name="Colonne1"/>
-    <tableColumn id="3" xr3:uid="{C9272115-71EB-46EB-8A05-0EE7E185355E}" name="prix unitaire (crédit)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F5C97EF6-8FFB-4BED-8A6B-F0ECD91CA1BE}" name="description" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{1C106866-6082-4B09-9D48-7BFF987DE5BC}" name="poid unitaire(kg)"/>
-    <tableColumn id="6" xr3:uid="{CFBB8012-47A1-4722-80AE-FF7E47AEBEF3}" name="image"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{71CBED34-746A-4E76-9790-F0026FEEB717}" name="Tableau5" displayName="Tableau5" ref="A1:H6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:H6" xr:uid="{71CBED34-746A-4E76-9790-F0026FEEB717}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0C263530-DFC9-4AD9-AB11-5F84E9A8AF4F}" name="nom de l'objet" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D654941C-B077-4A1F-9DF8-9C7E725D7B0D}" name="prix unitaire (crédit)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6F46B986-49F0-44DD-9C9D-A0B67803D62D}" name="description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E54EB73D-70C6-41E9-9181-F7E12C16A79C}" name="poid unitaire(kg)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{95FC1810-6937-4673-9CBD-ECE061AF9CB1}" name="image" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6EA97CB3-D49F-47BD-B1D5-7CD7605E5939}" name="Range (ft)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D060F270-ABD0-4AF2-B4F8-4BA8E7901556}" name="Hit" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{32D5C952-B3A8-4AD0-A521-E07EAE9E5E0F}" name="Damage" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{13EC96B6-293E-40AD-AE08-F8E6971F665C}" name="Tableau8" displayName="Tableau8" ref="A1:E5" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:E5" xr:uid="{13EC96B6-293E-40AD-AE08-F8E6971F665C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E9A2B363-6E92-4F46-A85E-F21ECB458D97}" name="nom de l'objet"/>
+    <tableColumn id="2" xr3:uid="{FEB92090-629B-4FDB-A3CA-FFD1E1C213BA}" name="prix unitaire (crédit)"/>
+    <tableColumn id="3" xr3:uid="{AB621E92-6386-46A1-B26C-A7342194A8C2}" name="description"/>
+    <tableColumn id="4" xr3:uid="{D27C4CC8-EB6C-4139-8560-458FF5AC32EE}" name="poid unitaire(kg)"/>
+    <tableColumn id="5" xr3:uid="{019F1069-6CE2-4E48-A09F-7C61200D6041}" name="image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D4547F3-5372-4073-AAD5-ADECF4CBFF72}" name="Tableau4" displayName="Tableau4" ref="A1:E11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:E11" xr:uid="{2D4547F3-5372-4073-AAD5-ADECF4CBFF72}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EFA71A40-0C6B-4E46-BB15-18472E08F4AF}" name="nom de l'objet" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C0926561-4045-4C92-ABBC-966E4D871DA5}" name="prix unitaire (crédit)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4FB55411-7F38-42D2-AF67-E0322DDBE59A}" name="description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{12E28D65-1733-4DC3-A626-4E6E693003DA}" name="poid unitaire(kg)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{0081291E-7C14-486C-A789-D81ACD633D5F}" name="image" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}" name="Tableau6" displayName="Tableau6" ref="A1:E5" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:E5" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DF98173-A067-453A-81C7-B8ECBB996AF1}" name="nom de l'objet"/>
+    <tableColumn id="2" xr3:uid="{7414F012-8CAC-47E5-AB2A-AFBEDD7131E3}" name="prix unitaire (crédit)"/>
+    <tableColumn id="3" xr3:uid="{5403D531-0A40-43AC-AB69-DE969B560118}" name="description"/>
+    <tableColumn id="4" xr3:uid="{2032CF8D-AF2B-4AAA-A61F-37684A2C1202}" name="poid unitaire(kg)"/>
+    <tableColumn id="5" xr3:uid="{E2D5636F-F997-4B44-BA68-980912326BFD}" name="image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{767A6D2A-A9A7-4996-967C-E3408D0EEE76}" name="Tableau7" displayName="Tableau7" ref="A1:E5" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:E5" xr:uid="{767A6D2A-A9A7-4996-967C-E3408D0EEE76}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1899E836-7B8D-4C45-9320-3AEC8772BA66}" name="nom de l'objet"/>
+    <tableColumn id="2" xr3:uid="{C021A19C-848D-455B-9619-4E2138BA086C}" name="prix unitaire (crédit)"/>
+    <tableColumn id="3" xr3:uid="{59DDDF1C-B609-48DE-B19F-ABFDA7998DED}" name="description"/>
+    <tableColumn id="4" xr3:uid="{1AF74231-D2F0-4B44-98A9-F5AB24BEF5D4}" name="poid unitaire(kg)"/>
+    <tableColumn id="5" xr3:uid="{6251C7D5-4CBF-49C0-BD4E-445244FE012C}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,590 +1890,731 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C004C05-A0C7-4697-947B-8A28647BBE17}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="11">
+        <v>300</v>
+      </c>
+      <c r="G2" s="11">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="4">
+        <v>500</v>
+      </c>
+      <c r="G3" s="4">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="4">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="4">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="10">
+        <v>300</v>
+      </c>
+      <c r="G6" s="10">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB4B5C8-D221-4AAD-885F-59CFBCA054B4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="5" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D916F-90D8-4C6A-9C60-AFF3E9B35F8D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="5" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="5" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="5" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD9190-84EB-43E0-AFE8-8E75382FD388}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="9" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C44BC9-C2FB-4A7A-9819-31CAA23F890A}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="3" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="1" t="e" vm="1">
+      <c r="E3" s="2" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="1" t="e" vm="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="e" vm="3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F8" s="1" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F9" s="1" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15">
-        <v>1.5</v>
-      </c>
-      <c r="F15" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F18" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19">
-        <v>1.5</v>
-      </c>
-      <c r="F19" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-      <c r="F21" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27">
-        <v>0.2</v>
-      </c>
-      <c r="F27" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-      <c r="F28" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8198A1-AEDE-4C8D-BAF5-DA821B3A267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3770BA-F8D5-42AE-9392-681D73F9145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes" sheetId="10" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>9mm</t>
   </si>
@@ -494,6 +494,24 @@
   </si>
   <si>
     <t>un lance roquette très performant avec un viseur laser (pas de guidage)en cas de critique rajoute 3d10</t>
+  </si>
+  <si>
+    <t>effet</t>
+  </si>
+  <si>
+    <t>bonus armor class</t>
+  </si>
+  <si>
+    <t>divise par 3 les dégats par balles lors d'un tir non critique</t>
+  </si>
+  <si>
+    <t>elle chatouille un peu mais elle a la classe donc c'est bon</t>
+  </si>
+  <si>
+    <t>simple armure en plus</t>
+  </si>
+  <si>
+    <t>protège des coups à la tete</t>
   </si>
 </sst>
 </file>
@@ -609,7 +627,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1556,24 +1598,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{71CBED34-746A-4E76-9790-F0026FEEB717}" name="Tableau5" displayName="Tableau5" ref="A1:H6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{71CBED34-746A-4E76-9790-F0026FEEB717}" name="Tableau5" displayName="Tableau5" ref="A1:H6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
   <autoFilter ref="A1:H6" xr:uid="{71CBED34-746A-4E76-9790-F0026FEEB717}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0C263530-DFC9-4AD9-AB11-5F84E9A8AF4F}" name="nom de l'objet" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D654941C-B077-4A1F-9DF8-9C7E725D7B0D}" name="prix unitaire (crédit)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6F46B986-49F0-44DD-9C9D-A0B67803D62D}" name="description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E54EB73D-70C6-41E9-9181-F7E12C16A79C}" name="poid unitaire(kg)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{95FC1810-6937-4673-9CBD-ECE061AF9CB1}" name="image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6EA97CB3-D49F-47BD-B1D5-7CD7605E5939}" name="Range (ft)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D060F270-ABD0-4AF2-B4F8-4BA8E7901556}" name="Hit" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{32D5C952-B3A8-4AD0-A521-E07EAE9E5E0F}" name="Damage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0C263530-DFC9-4AD9-AB11-5F84E9A8AF4F}" name="nom de l'objet" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D654941C-B077-4A1F-9DF8-9C7E725D7B0D}" name="prix unitaire (crédit)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6F46B986-49F0-44DD-9C9D-A0B67803D62D}" name="description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E54EB73D-70C6-41E9-9181-F7E12C16A79C}" name="poid unitaire(kg)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{95FC1810-6937-4673-9CBD-ECE061AF9CB1}" name="image" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{6EA97CB3-D49F-47BD-B1D5-7CD7605E5939}" name="Range (ft)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D060F270-ABD0-4AF2-B4F8-4BA8E7901556}" name="Hit" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{32D5C952-B3A8-4AD0-A521-E07EAE9E5E0F}" name="Damage" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{13EC96B6-293E-40AD-AE08-F8E6971F665C}" name="Tableau8" displayName="Tableau8" ref="A1:E5" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{13EC96B6-293E-40AD-AE08-F8E6971F665C}" name="Tableau8" displayName="Tableau8" ref="A1:E5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:E5" xr:uid="{13EC96B6-293E-40AD-AE08-F8E6971F665C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E9A2B363-6E92-4F46-A85E-F21ECB458D97}" name="nom de l'objet"/>
@@ -1587,35 +1629,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D4547F3-5372-4073-AAD5-ADECF4CBFF72}" name="Tableau4" displayName="Tableau4" ref="A1:E11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D4547F3-5372-4073-AAD5-ADECF4CBFF72}" name="Tableau4" displayName="Tableau4" ref="A1:E11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:E11" xr:uid="{2D4547F3-5372-4073-AAD5-ADECF4CBFF72}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EFA71A40-0C6B-4E46-BB15-18472E08F4AF}" name="nom de l'objet" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{C0926561-4045-4C92-ABBC-966E4D871DA5}" name="prix unitaire (crédit)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4FB55411-7F38-42D2-AF67-E0322DDBE59A}" name="description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{12E28D65-1733-4DC3-A626-4E6E693003DA}" name="poid unitaire(kg)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{0081291E-7C14-486C-A789-D81ACD633D5F}" name="image" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{EFA71A40-0C6B-4E46-BB15-18472E08F4AF}" name="nom de l'objet" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C0926561-4045-4C92-ABBC-966E4D871DA5}" name="prix unitaire (crédit)" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{4FB55411-7F38-42D2-AF67-E0322DDBE59A}" name="description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{12E28D65-1733-4DC3-A626-4E6E693003DA}" name="poid unitaire(kg)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{0081291E-7C14-486C-A789-D81ACD633D5F}" name="image" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}" name="Tableau6" displayName="Tableau6" ref="A1:E5" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:E5" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DF98173-A067-453A-81C7-B8ECBB996AF1}" name="nom de l'objet"/>
-    <tableColumn id="2" xr3:uid="{7414F012-8CAC-47E5-AB2A-AFBEDD7131E3}" name="prix unitaire (crédit)"/>
-    <tableColumn id="3" xr3:uid="{5403D531-0A40-43AC-AB69-DE969B560118}" name="description"/>
-    <tableColumn id="4" xr3:uid="{2032CF8D-AF2B-4AAA-A61F-37684A2C1202}" name="poid unitaire(kg)"/>
-    <tableColumn id="5" xr3:uid="{E2D5636F-F997-4B44-BA68-980912326BFD}" name="image"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}" name="Tableau6" displayName="Tableau6" ref="A1:G5" totalsRowShown="0" headerRowDxfId="33" dataDxfId="0" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="A1:G5" xr:uid="{DC48FBA8-8F60-4F2C-B7E3-CE2467BEBAB9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7DF98173-A067-453A-81C7-B8ECBB996AF1}" name="nom de l'objet" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7414F012-8CAC-47E5-AB2A-AFBEDD7131E3}" name="prix unitaire (crédit)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5403D531-0A40-43AC-AB69-DE969B560118}" name="description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2032CF8D-AF2B-4AAA-A61F-37684A2C1202}" name="poid unitaire(kg)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E2D5636F-F997-4B44-BA68-980912326BFD}" name="image" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4BD1B64F-30A6-4F4A-9F30-DC24266BF850}" name="bonus armor class" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0F494923-2E60-4A39-90FB-1119352C5A17}" name="effet" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{767A6D2A-A9A7-4996-967C-E3408D0EEE76}" name="Tableau7" displayName="Tableau7" ref="A1:E5" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{767A6D2A-A9A7-4996-967C-E3408D0EEE76}" name="Tableau7" displayName="Tableau7" ref="A1:E5" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
   <autoFilter ref="A1:E5" xr:uid="{767A6D2A-A9A7-4996-967C-E3408D0EEE76}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1899E836-7B8D-4C45-9320-3AEC8772BA66}" name="nom de l'objet"/>
@@ -1893,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C004C05-A0C7-4697-947B-8A28647BBE17}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2408,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD9190-84EB-43E0-AFE8-8E75382FD388}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,9 +2465,11 @@
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -2439,9 +2485,15 @@
       <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5">
@@ -2450,32 +2502,44 @@
       <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="e" vm="18">
+      <c r="E2" s="5" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="4">
         <v>75</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="5">
@@ -2484,15 +2548,21 @@
       <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.2</v>
       </c>
-      <c r="E4" s="3" t="e" vm="20">
+      <c r="E4" s="5" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10">
@@ -2501,12 +2571,72 @@
       <c r="C5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.5</v>
       </c>
-      <c r="E5" s="9" t="e" vm="21">
+      <c r="E5" s="10" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\fiche-de-personnage-interactive-codex-develop-python-inventory-management-app-fkhowt\fiche-de-personnage-interactive-codex-develop-python-inventory-management-app-fkhowt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755E0B66-14B6-4A37-B603-B19D6FCAC71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC7888-8B9D-46CC-B1D6-71BD24DD3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,270 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="25">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="25">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>nom de l'objet</t>
   </si>
@@ -56,9 +318,6 @@
     <t>un fusil d'assault tout ce qu'il y a de plus normal, comprend des zones de customisation ainsi que un porte clef. Attention au recul héhé. Si critique rajoute 1d6</t>
   </si>
   <si>
-    <t>#VALUE!</t>
-  </si>
-  <si>
     <t>2d6</t>
   </si>
   <si>
@@ -86,9 +345,6 @@
     <t>MMORPG-7</t>
   </si>
   <si>
-    <t>un lance roquette très performant avec un viseur laser (pas de guidage)en cas de critique rajoute 3d10</t>
-  </si>
-  <si>
     <t>6d10</t>
   </si>
   <si>
@@ -240,6 +496,21 @@
   </si>
   <si>
     <t>3d4</t>
+  </si>
+  <si>
+    <t>un lance roquette c'est quand meme mieux avec d'autres gens. en cas de critique rajoute 3d10</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>dégat</t>
+  </si>
+  <si>
+    <t>2d10</t>
+  </si>
+  <si>
+    <t>1d12</t>
   </si>
 </sst>
 </file>
@@ -272,8 +543,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +563,190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="25">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,10 +1069,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -655,66 +1117,66 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="F2">
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="F3">
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="E4" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -722,54 +1184,54 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1.5</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="E5" t="e" vm="4">
+        <v>#VALUE!</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="E6" t="e" vm="5">
+        <v>#VALUE!</v>
       </c>
       <c r="F6">
         <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -779,13 +1241,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,73 +1265,103 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="E5" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -902,172 +1398,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>0.1</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2" t="e" vm="10">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>0.3</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3" t="e" vm="11">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="E4" t="e" vm="12">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="E5" t="e" vm="12">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="E6" t="e" vm="13">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
+      <c r="E7" t="e" vm="13">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
+      <c r="E8" t="e" vm="14">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
+      <c r="E9" t="e" vm="15">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
+      <c r="E10" t="e" vm="16">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
+      <c r="E11" t="e" vm="17">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1079,9 +1575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1100,102 +1601,102 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2" t="e" vm="18">
+        <v>#VALUE!</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3" t="e" vm="19">
+        <v>#VALUE!</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="E4" t="e" vm="20">
+        <v>#VALUE!</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="E5" t="e" vm="21">
+        <v>#VALUE!</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1205,11 +1706,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="104.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1230,68 +1736,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3" t="e" vm="23">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/magasin.xlsx
+++ b/magasin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\fiche-de-personnage-interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B91E9-CB19-44DE-ADE2-7618BE840FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF6B1EE-45BB-49A7-84B2-0FCC60CE4350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
